--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic 2014 Promos (PM14).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic 2014 Promos (PM14).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,175 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colossal Whale</t>
+          <t>('Colossal Whale', ['{5}{U}{U}', 'Creature — Whale', 'Islandwalk (This creature can’t be blocked as long as defending player controls an Island.)', 'Whenever Colossal Whale attacks, you may exile target creature defending player controls until Colossal Whale leaves the battlefield. (That creature returns under its owner’s control.)', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{5}{U}{U}</t>
+          <t>('Goblin Diplomats', ['{1}{R}', 'Creature — Goblin', '{T}: Each creature attacks this turn if able.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Whale</t>
+          <t>('Hive Stirrings', ['{2}{W}', 'Sorcery', 'Create two 1/1 colorless Sliver creature tokens.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Islandwalk (This creature can’t be blocked as long as defending player controls an Island.)</t>
+          <t>('Megantic Sliver', ['{5}{G}', 'Creature — Sliver', 'Sliver creatures you control get +3/+3.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Whenever Colossal Whale attacks, you may exile target creature defending player controls until Colossal Whale leaves the battlefield. (That creature returns under its owner’s control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Goblin Diplomats</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{T}: Each creature attacks this turn if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Hive Stirrings</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Create two 1/1 colorless Sliver creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Megantic Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{5}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Creature — Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sliver creatures you control get +3/+3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Ratchet Bomb</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{T}: Put a charge counter on Ratchet Bomb.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice Ratchet Bomb: Destroy each nonland permanent with converted mana cost equal to the number of charge counters on Ratchet Bomb.</t>
+          <t>('Ratchet Bomb', ['{2}', 'Artifact', '{T}: Put a charge counter on Ratchet Bomb.', '{T}, Sacrifice Ratchet Bomb: Destroy each nonland permanent with converted mana cost equal to the number of charge counters on Ratchet Bomb.'])</t>
         </is>
       </c>
     </row>
